--- a/file_export/huu_tri/danhsach_form.xlsx
+++ b/file_export/huu_tri/danhsach_form.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="210" windowWidth="15480" windowHeight="9795" tabRatio="791"/>
@@ -85,14 +85,13 @@
     <t>DANH SÁCH CÁN BỘ ĐẾN TUỔI NGHỈ HƯU NĂM:</t>
   </si>
   <si>
-    <t xml:space="preserve">BAN CHẤP HÀNH TRUNG ƯƠNG 
-</t>
-  </si>
-  <si>
     <t>***</t>
   </si>
   <si>
-    <t xml:space="preserve">ĐOÀN TNCS HỒ CHÍ MINH
+    <t>BỘ GIAO THÔNG VẬN TẢI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRƯỜNG ĐẠI HỌC CÔNG NGHỆ GIAO THÔNG VẬN TẢI
 </t>
   </si>
 </sst>
@@ -100,7 +99,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -130,13 +129,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="14"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -240,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -261,15 +253,39 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -291,32 +307,11 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -625,144 +620,144 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:J5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.875" style="19" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="18" customWidth="1"/>
-    <col min="3" max="4" width="10.75" style="26" customWidth="1"/>
-    <col min="5" max="5" width="30.125" style="21" customWidth="1"/>
-    <col min="6" max="6" width="11" style="21" customWidth="1"/>
-    <col min="7" max="9" width="11" style="26" customWidth="1"/>
-    <col min="10" max="10" width="11" style="22" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="19" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="19"/>
+    <col min="1" max="1" width="3.88671875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" style="8" customWidth="1"/>
+    <col min="3" max="4" width="10.77734375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="30.109375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="11" style="11" customWidth="1"/>
+    <col min="7" max="9" width="11" style="16" customWidth="1"/>
+    <col min="10" max="10" width="11" style="12" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" style="9" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A1" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="F1" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+    </row>
+    <row r="2" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="F1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
     </row>
-    <row r="2" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
+    <row r="3" spans="1:10" ht="42.75" customHeight="1">
+      <c r="C3" s="13"/>
+      <c r="D3" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
     </row>
-    <row r="3" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="23"/>
-      <c r="D3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
+    <row r="4" spans="1:10" ht="22.5" customHeight="1">
+      <c r="A4" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
+    <row r="5" spans="1:10" ht="29.25" customHeight="1">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="13"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
     </row>
-    <row r="6" spans="1:10" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+    <row r="6" spans="1:10" s="5" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="20"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
